--- a/assets/excel/whz-girls.xlsx
+++ b/assets/excel/whz-girls.xlsx
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
